--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Ngfr</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +528,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.768772561858271</v>
+        <v>0.9523829999999999</v>
       </c>
       <c r="H2">
-        <v>0.768772561858271</v>
+        <v>2.857149</v>
       </c>
       <c r="I2">
-        <v>0.03913159579170226</v>
+        <v>0.04618630532204829</v>
       </c>
       <c r="J2">
-        <v>0.03913159579170226</v>
+        <v>0.06493209518353291</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.50134427484324</v>
+        <v>0.175393</v>
       </c>
       <c r="N2">
-        <v>4.50134427484324</v>
+        <v>0.526179</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01226364905153833</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01818959939974001</v>
       </c>
       <c r="Q2">
-        <v>3.460509969977299</v>
+        <v>0.167041311519</v>
       </c>
       <c r="R2">
-        <v>3.460509969977299</v>
+        <v>1.503371803671</v>
       </c>
       <c r="S2">
-        <v>0.03913159579170226</v>
+        <v>0.0005664126394567972</v>
       </c>
       <c r="T2">
-        <v>0.03913159579170226</v>
+        <v>0.001181088799574251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.64870635951111</v>
+        <v>0.9523829999999999</v>
       </c>
       <c r="H3">
-        <v>1.64870635951111</v>
+        <v>2.857149</v>
       </c>
       <c r="I3">
-        <v>0.0839214535488219</v>
+        <v>0.04618630532204829</v>
       </c>
       <c r="J3">
-        <v>0.0839214535488219</v>
+        <v>0.06493209518353291</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>4.50134427484324</v>
+        <v>0.090517</v>
       </c>
       <c r="N3">
-        <v>4.50134427484324</v>
+        <v>0.271551</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.006329036627448615</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.009387307183674753</v>
       </c>
       <c r="Q3">
-        <v>7.421394932282976</v>
+        <v>0.08620685201099999</v>
       </c>
       <c r="R3">
-        <v>7.421394932282976</v>
+        <v>0.7758616680989999</v>
       </c>
       <c r="S3">
-        <v>0.0839214535488219</v>
+        <v>0.0002923148180697685</v>
       </c>
       <c r="T3">
-        <v>0.0839214535488219</v>
+        <v>0.0006095375235674313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +652,613 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.9523829999999999</v>
+      </c>
+      <c r="H4">
+        <v>2.857149</v>
+      </c>
+      <c r="I4">
+        <v>0.04618630532204829</v>
+      </c>
+      <c r="J4">
+        <v>0.06493209518353291</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.05783366666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.173501</v>
+      </c>
+      <c r="O4">
+        <v>0.004043786190803798</v>
+      </c>
+      <c r="P4">
+        <v>0.005997794829239272</v>
+      </c>
+      <c r="Q4">
+        <v>0.05507980096099999</v>
+      </c>
+      <c r="R4">
+        <v>0.4957182086489999</v>
+      </c>
+      <c r="S4">
+        <v>0.0001867675436655468</v>
+      </c>
+      <c r="T4">
+        <v>0.0003894493847434659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>17.2283480965333</v>
-      </c>
-      <c r="H4">
-        <v>17.2283480965333</v>
-      </c>
-      <c r="I4">
-        <v>0.8769469506594759</v>
-      </c>
-      <c r="J4">
-        <v>0.8769469506594759</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>4.50134427484324</v>
-      </c>
-      <c r="N4">
-        <v>4.50134427484324</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>77.5507260693366</v>
-      </c>
-      <c r="R4">
-        <v>77.5507260693366</v>
-      </c>
-      <c r="S4">
-        <v>0.8769469506594759</v>
-      </c>
-      <c r="T4">
-        <v>0.8769469506594759</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.9523829999999999</v>
+      </c>
+      <c r="H5">
+        <v>2.857149</v>
+      </c>
+      <c r="I5">
+        <v>0.04618630532204829</v>
+      </c>
+      <c r="J5">
+        <v>0.06493209518353291</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.978117</v>
+      </c>
+      <c r="N5">
+        <v>27.956234</v>
+      </c>
+      <c r="O5">
+        <v>0.9773635281302092</v>
+      </c>
+      <c r="P5">
+        <v>0.9664252985873459</v>
+      </c>
+      <c r="Q5">
+        <v>13.312521002811</v>
+      </c>
+      <c r="R5">
+        <v>79.87512601686599</v>
+      </c>
+      <c r="S5">
+        <v>0.04514081032085617</v>
+      </c>
+      <c r="T5">
+        <v>0.06275201947564775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.808798</v>
+      </c>
+      <c r="H6">
+        <v>5.426394</v>
+      </c>
+      <c r="I6">
+        <v>0.08771859293363103</v>
+      </c>
+      <c r="J6">
+        <v>0.1233212309583266</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.175393</v>
+      </c>
+      <c r="N6">
+        <v>0.526179</v>
+      </c>
+      <c r="O6">
+        <v>0.01226364905153833</v>
+      </c>
+      <c r="P6">
+        <v>0.01818959939974001</v>
+      </c>
+      <c r="Q6">
+        <v>0.317250507614</v>
+      </c>
+      <c r="R6">
+        <v>2.855254568526</v>
+      </c>
+      <c r="S6">
+        <v>0.001075750039032801</v>
+      </c>
+      <c r="T6">
+        <v>0.002243163788614776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.808798</v>
+      </c>
+      <c r="H7">
+        <v>5.426394</v>
+      </c>
+      <c r="I7">
+        <v>0.08771859293363103</v>
+      </c>
+      <c r="J7">
+        <v>0.1233212309583266</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.090517</v>
+      </c>
+      <c r="N7">
+        <v>0.271551</v>
+      </c>
+      <c r="O7">
+        <v>0.006329036627448615</v>
+      </c>
+      <c r="P7">
+        <v>0.009387307183674753</v>
+      </c>
+      <c r="Q7">
+        <v>0.163726968566</v>
+      </c>
+      <c r="R7">
+        <v>1.473542717094</v>
+      </c>
+      <c r="S7">
+        <v>0.0005551741875852061</v>
+      </c>
+      <c r="T7">
+        <v>0.001157654277274713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.808798</v>
+      </c>
+      <c r="H8">
+        <v>5.426394</v>
+      </c>
+      <c r="I8">
+        <v>0.08771859293363103</v>
+      </c>
+      <c r="J8">
+        <v>0.1233212309583266</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05783366666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.173501</v>
+      </c>
+      <c r="O8">
+        <v>0.004043786190803798</v>
+      </c>
+      <c r="P8">
+        <v>0.005997794829239272</v>
+      </c>
+      <c r="Q8">
+        <v>0.1046094205993333</v>
+      </c>
+      <c r="R8">
+        <v>0.9414847853939999</v>
+      </c>
+      <c r="S8">
+        <v>0.0003547152347817568</v>
+      </c>
+      <c r="T8">
+        <v>0.0007396554413772733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.808798</v>
+      </c>
+      <c r="H9">
+        <v>5.426394</v>
+      </c>
+      <c r="I9">
+        <v>0.08771859293363103</v>
+      </c>
+      <c r="J9">
+        <v>0.1233212309583266</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.978117</v>
+      </c>
+      <c r="N9">
+        <v>27.956234</v>
+      </c>
+      <c r="O9">
+        <v>0.9773635281302092</v>
+      </c>
+      <c r="P9">
+        <v>0.9664252985873459</v>
+      </c>
+      <c r="Q9">
+        <v>25.283590073366</v>
+      </c>
+      <c r="R9">
+        <v>151.701540440196</v>
+      </c>
+      <c r="S9">
+        <v>0.08573295347223127</v>
+      </c>
+      <c r="T9">
+        <v>0.1191807574510598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>17.859282</v>
+      </c>
+      <c r="H10">
+        <v>35.718564</v>
+      </c>
+      <c r="I10">
+        <v>0.8660951017443207</v>
+      </c>
+      <c r="J10">
+        <v>0.8117466738581405</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.175393</v>
+      </c>
+      <c r="N10">
+        <v>0.526179</v>
+      </c>
+      <c r="O10">
+        <v>0.01226364905153833</v>
+      </c>
+      <c r="P10">
+        <v>0.01818959939974001</v>
+      </c>
+      <c r="Q10">
+        <v>3.132393047826</v>
+      </c>
+      <c r="R10">
+        <v>18.794358286956</v>
+      </c>
+      <c r="S10">
+        <v>0.01062148637304873</v>
+      </c>
+      <c r="T10">
+        <v>0.01476534681155098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>17.859282</v>
+      </c>
+      <c r="H11">
+        <v>35.718564</v>
+      </c>
+      <c r="I11">
+        <v>0.8660951017443207</v>
+      </c>
+      <c r="J11">
+        <v>0.8117466738581405</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.090517</v>
+      </c>
+      <c r="N11">
+        <v>0.271551</v>
+      </c>
+      <c r="O11">
+        <v>0.006329036627448615</v>
+      </c>
+      <c r="P11">
+        <v>0.009387307183674753</v>
+      </c>
+      <c r="Q11">
+        <v>1.616568628794</v>
+      </c>
+      <c r="R11">
+        <v>9.699411772764</v>
+      </c>
+      <c r="S11">
+        <v>0.005481547621793641</v>
+      </c>
+      <c r="T11">
+        <v>0.00762011538283261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>17.859282</v>
+      </c>
+      <c r="H12">
+        <v>35.718564</v>
+      </c>
+      <c r="I12">
+        <v>0.8660951017443207</v>
+      </c>
+      <c r="J12">
+        <v>0.8117466738581405</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05783366666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.173501</v>
+      </c>
+      <c r="O12">
+        <v>0.004043786190803798</v>
+      </c>
+      <c r="P12">
+        <v>0.005997794829239272</v>
+      </c>
+      <c r="Q12">
+        <v>1.032867762094</v>
+      </c>
+      <c r="R12">
+        <v>6.197206572563999</v>
+      </c>
+      <c r="S12">
+        <v>0.003502303412356494</v>
+      </c>
+      <c r="T12">
+        <v>0.004868690003118533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>17.859282</v>
+      </c>
+      <c r="H13">
+        <v>35.718564</v>
+      </c>
+      <c r="I13">
+        <v>0.8660951017443207</v>
+      </c>
+      <c r="J13">
+        <v>0.8117466738581405</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.978117</v>
+      </c>
+      <c r="N13">
+        <v>27.956234</v>
+      </c>
+      <c r="O13">
+        <v>0.9773635281302092</v>
+      </c>
+      <c r="P13">
+        <v>0.9664252985873459</v>
+      </c>
+      <c r="Q13">
+        <v>249.639133331994</v>
+      </c>
+      <c r="R13">
+        <v>998.556533327976</v>
+      </c>
+      <c r="S13">
+        <v>0.8464897643371218</v>
+      </c>
+      <c r="T13">
+        <v>0.7844925216606383</v>
       </c>
     </row>
   </sheetData>
